--- a/server/src/sim/epi-template.xlsx
+++ b/server/src/sim/epi-template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="28620" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Epidemiology" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,283 @@
     <sheet name="Programs" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="113">
+  <si>
+    <t>Casual act condom use probability</t>
+  </si>
+  <si>
+    <t>Commercial/other act condom use probability</t>
+  </si>
+  <si>
+    <t>Circumcision probability</t>
+  </si>
+  <si>
+    <t>Number of injections per person per year</t>
+  </si>
+  <si>
+    <t>Needle-syringe sharing rate</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Percent on OST</t>
+  </si>
+  <si>
+    <t>HIV prevalence (lower bound)</t>
+  </si>
+  <si>
+    <t>HIV prevalence (upper bound)</t>
+  </si>
+  <si>
+    <t>Interaction-related transmissibility (% per act):</t>
+  </si>
+  <si>
+    <t>Injecting</t>
+  </si>
+  <si>
+    <t>Mother-to-child</t>
+  </si>
+  <si>
+    <t>Disease-related transmissibility</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Disease progression rate: (% per year)</t>
+  </si>
+  <si>
+    <t>Treatment recovery rate: (% per year)</t>
+  </si>
+  <si>
+    <t>Death rate: (% mortality per year)</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Treatment failure rate: (% per year)</t>
+  </si>
+  <si>
+    <t>1st-line</t>
+  </si>
+  <si>
+    <t>2nd-line</t>
+  </si>
+  <si>
+    <t>Efficacy/change in transmissibility due to:</t>
+  </si>
+  <si>
+    <t>Heterosexual insertive</t>
+  </si>
+  <si>
+    <t>Heterosexual receptive</t>
+  </si>
+  <si>
+    <t>Homosexual insertive</t>
+  </si>
+  <si>
+    <t>Homosexual receptive</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Above CD4(500)</t>
+  </si>
+  <si>
+    <t>Below CD4(200)</t>
+  </si>
+  <si>
+    <t>CD4 (&lt;200)</t>
+  </si>
+  <si>
+    <t>CD4 (&gt;500)</t>
+  </si>
+  <si>
+    <t>Acute infection</t>
+  </si>
+  <si>
+    <t>Acute to CD4 (&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4 (500) to CD4 (350-500)</t>
+  </si>
+  <si>
+    <t>CD4 (350-,500) to CD4 (200-350)</t>
+  </si>
+  <si>
+    <t>CD4 (200-350) to CD4 (200)</t>
+  </si>
+  <si>
+    <t>CD4 (350-500) to CD4 (&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4  (350-500)</t>
+  </si>
+  <si>
+    <t>CD4 (&lt;200)  to CD4 (200-350)</t>
+  </si>
+  <si>
+    <t>CD4 (350-500)</t>
+  </si>
+  <si>
+    <t>CD4 (200-350)</t>
+  </si>
+  <si>
+    <t>On treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circumcision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STI cofactor increase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syringe cleaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methadone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment risk compensation </t>
+  </si>
+  <si>
+    <t>Regular sexual interactions</t>
+  </si>
+  <si>
+    <t>Example: if low-risk males have insertive regular acts with low-risk females and sex workers, enter a "1" for the row CSW and the columns LRF and FSW.</t>
+  </si>
+  <si>
+    <t>LRM</t>
+  </si>
+  <si>
+    <t>LRF</t>
+  </si>
+  <si>
+    <t>DFSW</t>
+  </si>
+  <si>
+    <t>IFSW</t>
+  </si>
+  <si>
+    <t>BMSM</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>MHDU</t>
+  </si>
+  <si>
+    <t>FHDU</t>
+  </si>
+  <si>
+    <t>MLDU</t>
+  </si>
+  <si>
+    <t>FLDU</t>
+  </si>
+  <si>
+    <t>HRM</t>
+  </si>
+  <si>
+    <t>HRF</t>
+  </si>
+  <si>
+    <t>Casual sexual interactions</t>
+  </si>
+  <si>
+    <t>Other sexual interactions</t>
+  </si>
+  <si>
+    <t>Injecting interactions</t>
+  </si>
+  <si>
+    <t>Asymmetric population transitions (% leaving per year)</t>
+  </si>
+  <si>
+    <t>Example:  if you have population groups for children 0-10 and adults, enter "10" (=1/10*100) in the row "CHLD" and the column "ADLT". These children will become adults and will then be replenished in accordance to their population size.</t>
+  </si>
+  <si>
+    <t>Symmetric population transitions (% leaving per year)</t>
+  </si>
+  <si>
+    <t>Example:  if female sex workers work for an average of 5 years and then revert to being low-risk females, enter "20" in the row "FSW" and the column "LRF". These FSW will then become LRF and an equal number of LRF will become FSW.</t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>PMTCT</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>GP condom programs</t>
+  </si>
+  <si>
+    <t>FSW programs</t>
+  </si>
+  <si>
+    <t>MSM programs</t>
+  </si>
+  <si>
+    <t>PWID condom programs</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>VMMC</t>
+  </si>
+  <si>
+    <t>NSP programs</t>
+  </si>
+  <si>
+    <t>OST programs</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Zero coverage</t>
+  </si>
+  <si>
+    <t>Full coverage</t>
+  </si>
   <si>
     <t>Population size</t>
   </si>
@@ -93,274 +365,17 @@
   </si>
   <si>
     <t>Regular act condom use probability</t>
-  </si>
-  <si>
-    <t>Casual act condom use probability</t>
-  </si>
-  <si>
-    <t>Commercial/other act condom use probability</t>
-  </si>
-  <si>
-    <t>Circumcision probability</t>
-  </si>
-  <si>
-    <t>Number of injections per person per year</t>
-  </si>
-  <si>
-    <t>Needle-syringe sharing rate</t>
-  </si>
-  <si>
-    <t>Assumption</t>
-  </si>
-  <si>
-    <t>Percent on OST</t>
-  </si>
-  <si>
-    <t>HIV prevalence (lower bound)</t>
-  </si>
-  <si>
-    <t>HIV prevalence (upper bound)</t>
-  </si>
-  <si>
-    <t>Interaction-related transmissibility (% per act):</t>
-  </si>
-  <si>
-    <t>Injecting</t>
-  </si>
-  <si>
-    <t>Mother-to-child</t>
-  </si>
-  <si>
-    <t>Disease-related transmissibility</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Disease progression rate: (% per year)</t>
-  </si>
-  <si>
-    <t>Treatment recovery rate: (% per year)</t>
-  </si>
-  <si>
-    <t>Death rate: (% mortality per year)</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>Treatment failure rate: (% per year)</t>
-  </si>
-  <si>
-    <t>1st-line</t>
-  </si>
-  <si>
-    <t>2nd-line</t>
-  </si>
-  <si>
-    <t>Efficacy/change in transmissibility due to:</t>
-  </si>
-  <si>
-    <t>Heterosexual insertive</t>
-  </si>
-  <si>
-    <t>Heterosexual receptive</t>
-  </si>
-  <si>
-    <t>Homosexual insertive</t>
-  </si>
-  <si>
-    <t>Homosexual receptive</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Above CD4(500)</t>
-  </si>
-  <si>
-    <t>Below CD4(200)</t>
-  </si>
-  <si>
-    <t>CD4 (&lt;200)</t>
-  </si>
-  <si>
-    <t>CD4 (&gt;500)</t>
-  </si>
-  <si>
-    <t>Acute infection</t>
-  </si>
-  <si>
-    <t>Acute to CD4 (&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4 (500) to CD4 (350-500)</t>
-  </si>
-  <si>
-    <t>CD4 (350-,500) to CD4 (200-350)</t>
-  </si>
-  <si>
-    <t>CD4 (200-350) to CD4 (200)</t>
-  </si>
-  <si>
-    <t>CD4 (350-500) to CD4 (&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4  (350-500)</t>
-  </si>
-  <si>
-    <t>CD4 (&lt;200)  to CD4 (200-350)</t>
-  </si>
-  <si>
-    <t>CD4 (350-500)</t>
-  </si>
-  <si>
-    <t>CD4 (200-350)</t>
-  </si>
-  <si>
-    <t>On treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circumcision </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnosis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STI cofactor increase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syringe cleaning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methadone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMTCT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment risk compensation </t>
-  </si>
-  <si>
-    <t>Regular sexual interactions</t>
-  </si>
-  <si>
-    <t>Example: if low-risk males have insertive regular acts with low-risk females and sex workers, enter a "1" for the row CSW and the columns LRF and FSW.</t>
-  </si>
-  <si>
-    <t>LRM</t>
-  </si>
-  <si>
-    <t>LRF</t>
-  </si>
-  <si>
-    <t>DFSW</t>
-  </si>
-  <si>
-    <t>IFSW</t>
-  </si>
-  <si>
-    <t>BMSM</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
-    <t>MHDU</t>
-  </si>
-  <si>
-    <t>FHDU</t>
-  </si>
-  <si>
-    <t>MLDU</t>
-  </si>
-  <si>
-    <t>FLDU</t>
-  </si>
-  <si>
-    <t>HRM</t>
-  </si>
-  <si>
-    <t>HRF</t>
-  </si>
-  <si>
-    <t>Casual sexual interactions</t>
-  </si>
-  <si>
-    <t>Other sexual interactions</t>
-  </si>
-  <si>
-    <t>Injecting interactions</t>
-  </si>
-  <si>
-    <t>Asymmetric population transitions (% leaving per year)</t>
-  </si>
-  <si>
-    <t>Example:  if you have population groups for children 0-10 and adults, enter "10" (=1/10*100) in the row "CHLD" and the column "ADLT". These children will become adults and will then be replenished in accordance to their population size.</t>
-  </si>
-  <si>
-    <t>Symmetric population transitions (% leaving per year)</t>
-  </si>
-  <si>
-    <t>Example:  if female sex workers work for an average of 5 years and then revert to being low-risk females, enter "20" in the row "FSW" and the column "LRF". These FSW will then become LRF and an equal number of LRF will become FSW.</t>
-  </si>
-  <si>
-    <t>Programs</t>
-  </si>
-  <si>
-    <t>PMTCT</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>GP condom programs</t>
-  </si>
-  <si>
-    <t>FSW programs</t>
-  </si>
-  <si>
-    <t>MSM programs</t>
-  </si>
-  <si>
-    <t>PWID condom programs</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>VMMC</t>
-  </si>
-  <si>
-    <t>NSP programs</t>
-  </si>
-  <si>
-    <t>OST programs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,26 +407,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -422,9 +434,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1193,7 +1209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -1272,6 +1288,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1938,7 +1958,7 @@
     <cellStyle name="Percent 2" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2233,24 +2253,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="M16" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36:V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="C2" s="1">
         <v>2000</v>
       </c>
@@ -2300,12 +2321,12 @@
         <v>2015</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2325,9 +2346,9 @@
       <c r="R3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2347,9 +2368,9 @@
       <c r="R4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2369,9 +2390,9 @@
       <c r="R5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2391,9 +2412,9 @@
       <c r="R6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2413,9 +2434,9 @@
       <c r="R7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2435,12 +2456,12 @@
       <c r="R8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="C11" s="1">
         <v>2000</v>
       </c>
@@ -2490,12 +2511,12 @@
         <v>2015</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2515,9 +2536,9 @@
       <c r="R12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2537,9 +2558,9 @@
       <c r="R13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2559,9 +2580,9 @@
       <c r="R14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2581,9 +2602,9 @@
       <c r="R15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2603,9 +2624,9 @@
       <c r="R16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2625,12 +2646,12 @@
       <c r="R17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="C20" s="1">
         <v>2000</v>
       </c>
@@ -2680,12 +2701,12 @@
         <v>2015</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2705,9 +2726,9 @@
       <c r="R21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2727,9 +2748,9 @@
       <c r="R22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2749,9 +2770,9 @@
       <c r="R23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2771,9 +2792,9 @@
       <c r="R24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2793,9 +2814,9 @@
       <c r="R25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2815,12 +2836,12 @@
       <c r="R26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="C29" s="1">
         <v>2000</v>
       </c>
@@ -2870,12 +2891,12 @@
         <v>2015</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2895,9 +2916,9 @@
       <c r="R30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2917,9 +2938,9 @@
       <c r="R31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2939,9 +2960,9 @@
       <c r="R32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2961,9 +2982,9 @@
       <c r="R33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2983,9 +3004,9 @@
       <c r="R34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3005,12 +3026,12 @@
       <c r="R35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="C38" s="1">
         <v>2000</v>
       </c>
@@ -3060,15 +3081,1954 @@
         <v>2015</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Y40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="30">
+      <c r="C2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="C11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="C15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="C19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="C23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R23" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="C27" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="C31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="C35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="V36" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="C39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O39" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R39" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="V40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Y62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <cols>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="C2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="C20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X28" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="30">
+      <c r="C29" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="X29" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y29" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="V30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="V31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="V33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="V34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="V35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="30">
+      <c r="C38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2010</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2011</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2012</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="X38" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y38" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="B39" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3088,12 +5048,14 @@
       <c r="R39" s="2"/>
       <c r="T39" s="2"/>
       <c r="V39" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25">
       <c r="B40" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3113,12 +5075,14 @@
       <c r="R40" s="2"/>
       <c r="T40" s="2"/>
       <c r="V40" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25">
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3138,12 +5102,14 @@
       <c r="R41" s="2"/>
       <c r="T41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25">
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3163,12 +5129,14 @@
       <c r="R42" s="2"/>
       <c r="T42" s="2"/>
       <c r="V42" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25">
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3188,12 +5156,14 @@
       <c r="R43" s="2"/>
       <c r="T43" s="2"/>
       <c r="V43" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25">
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3213,1908 +5183,20 @@
       <c r="R44" s="2"/>
       <c r="T44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="V6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="V7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R15" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L23" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M23" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N23" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O23" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P23" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R23" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I27" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M27" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N27" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O27" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R27" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I31" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L31" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M31" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N31" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O31" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P31" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R31" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="V32" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K35" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M35" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N35" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O35" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P35" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R35" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="V36" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J39" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K39" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L39" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M39" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N39" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O39" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P39" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R39" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="V40" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M20" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R20" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K29" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M29" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N29" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O29" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P29" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R29" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="V30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="V31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="V32" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="V33" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="V34" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="V35" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2007</v>
-      </c>
-      <c r="K38" s="1">
-        <v>2008</v>
-      </c>
-      <c r="L38" s="1">
-        <v>2009</v>
-      </c>
-      <c r="M38" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N38" s="1">
-        <v>2011</v>
-      </c>
-      <c r="O38" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P38" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>2014</v>
-      </c>
-      <c r="R38" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="V39" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="V40" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="V41" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="V42" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="V43" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="V44" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X46" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="30">
       <c r="C47" s="1">
         <v>2000</v>
       </c>
@@ -5164,15 +5246,21 @@
         <v>2015</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="X47" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y47" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="B48" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5192,10 +5280,12 @@
       <c r="R48" s="2"/>
       <c r="T48" s="2"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25">
       <c r="B49" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5215,10 +5305,12 @@
       <c r="R49" s="2"/>
       <c r="T49" s="2"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25">
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5238,12 +5330,14 @@
       <c r="R50" s="2"/>
       <c r="T50" s="2"/>
       <c r="V50" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25">
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5263,12 +5357,14 @@
       <c r="R51" s="2"/>
       <c r="T51" s="2"/>
       <c r="V51" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+    </row>
+    <row r="52" spans="1:25">
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5288,12 +5384,14 @@
       <c r="R52" s="2"/>
       <c r="T52" s="2"/>
       <c r="V52" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+    </row>
+    <row r="53" spans="1:25">
       <c r="B53" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5313,15 +5411,17 @@
       <c r="R53" s="2"/>
       <c r="T53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="C56" s="1">
         <v>2000</v>
       </c>
@@ -5371,15 +5471,15 @@
         <v>2015</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="B57" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5399,12 +5499,12 @@
       <c r="R57" s="2"/>
       <c r="T57" s="2"/>
       <c r="V57" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="B58" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5425,9 +5525,9 @@
       <c r="T58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5448,9 +5548,9 @@
       <c r="T59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="B60" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5470,12 +5570,12 @@
       <c r="R60" s="2"/>
       <c r="T60" s="2"/>
       <c r="V60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5495,12 +5595,12 @@
       <c r="R61" s="2"/>
       <c r="T61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5520,33 +5620,41 @@
       <c r="R62" s="2"/>
       <c r="T62" s="2"/>
       <c r="V62" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="1">
         <v>2000</v>
       </c>
@@ -5596,12 +5704,12 @@
         <v>2015</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5621,9 +5729,9 @@
       <c r="R3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5643,9 +5751,9 @@
       <c r="R4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5665,9 +5773,9 @@
       <c r="R5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5687,9 +5795,9 @@
       <c r="R6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5709,9 +5817,9 @@
       <c r="R7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5731,12 +5839,15 @@
       <c r="R8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="30">
       <c r="C11" s="1">
         <v>2000</v>
       </c>
@@ -5786,15 +5897,21 @@
         <v>2015</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="X11" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5814,15 +5931,17 @@
       <c r="R12" s="2"/>
       <c r="T12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="C15" s="1">
         <v>2000</v>
       </c>
@@ -5872,15 +5991,15 @@
         <v>2015</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5900,521 +6019,534 @@
       <c r="R16" s="2"/>
       <c r="T16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="C44" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5">
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5">
       <c r="B52" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5">
       <c r="B54" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5">
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5">
       <c r="B61" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5">
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5">
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5">
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="6.5703125" customWidth="1"/>
+    <col min="1" max="15" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+    <row r="1" spans="1:26" ht="15" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
@@ -6426,53 +6558,53 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="13"/>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="P2" s="14"/>
       <c r="Q2" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
@@ -6484,9 +6616,9 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -6514,9 +6646,9 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -6550,9 +6682,9 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -6582,9 +6714,9 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -6611,9 +6743,9 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -6641,9 +6773,9 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -6671,9 +6803,9 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -6703,9 +6835,9 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -6733,9 +6865,9 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -6763,9 +6895,9 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -6795,9 +6927,9 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -6825,9 +6957,9 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="10" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -6855,9 +6987,9 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -6885,9 +7017,9 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -6915,73 +7047,73 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
+      <c r="A18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -6998,9 +7130,9 @@
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -7025,9 +7157,9 @@
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -7046,9 +7178,9 @@
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -7065,9 +7197,9 @@
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="7" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -7084,9 +7216,9 @@
       <c r="N24" s="8"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -7103,9 +7235,9 @@
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -7124,9 +7256,9 @@
       <c r="N26" s="8"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -7143,9 +7275,9 @@
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -7162,9 +7294,9 @@
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -7183,9 +7315,9 @@
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -7202,9 +7334,9 @@
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="10" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -7221,9 +7353,9 @@
       <c r="N31" s="11"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -7240,9 +7372,9 @@
       <c r="N32" s="8"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -7259,73 +7391,73 @@
       <c r="N33" s="11"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
+      <c r="A35" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -7342,9 +7474,9 @@
       <c r="N37" s="8"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -7361,9 +7493,9 @@
       <c r="N38" s="11"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -7380,9 +7512,9 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
@@ -7399,9 +7531,9 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="7" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -7420,9 +7552,9 @@
       <c r="N41" s="8"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
@@ -7439,9 +7571,9 @@
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -7460,9 +7592,9 @@
       <c r="N43" s="8"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -7479,9 +7611,9 @@
       <c r="N44" s="11"/>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -7498,9 +7630,9 @@
       <c r="N45" s="8"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -7517,9 +7649,9 @@
       <c r="N46" s="11"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -7536,9 +7668,9 @@
       <c r="N47" s="8"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="10" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
@@ -7555,9 +7687,9 @@
       <c r="N48" s="11"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -7574,9 +7706,9 @@
       <c r="N49" s="8"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
@@ -7593,73 +7725,73 @@
       <c r="N50" s="11"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
+      <c r="A52" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="13"/>
       <c r="B53" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -7676,9 +7808,9 @@
       <c r="N54" s="8"/>
       <c r="O54" s="9"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
@@ -7695,9 +7827,9 @@
       <c r="N55" s="11"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -7714,9 +7846,9 @@
       <c r="N56" s="8"/>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -7733,9 +7865,9 @@
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="7" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -7752,9 +7884,9 @@
       <c r="N58" s="8"/>
       <c r="O58" s="9"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
@@ -7771,9 +7903,9 @@
       <c r="N59" s="11"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -7790,9 +7922,9 @@
       <c r="N60" s="8"/>
       <c r="O60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
@@ -7809,9 +7941,9 @@
       <c r="N61" s="11"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -7832,9 +7964,9 @@
       <c r="N62" s="8"/>
       <c r="O62" s="9"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
@@ -7855,9 +7987,9 @@
       <c r="N63" s="11"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -7874,9 +8006,9 @@
       <c r="N64" s="8"/>
       <c r="O64" s="9"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="10" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -7893,9 +8025,9 @@
       <c r="N65" s="11"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -7912,9 +8044,9 @@
       <c r="N66" s="8"/>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
@@ -7938,42 +8070,49 @@
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="A52:O52"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+    <row r="1" spans="1:26">
+      <c r="A1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
@@ -7985,56 +8124,56 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="26"/>
       <c r="B2" s="18" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="30"/>
       <c r="R2" s="16" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
@@ -8045,9 +8184,9 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="20" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
@@ -8077,9 +8216,9 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="23" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -8109,9 +8248,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="20" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -8141,9 +8280,9 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="23" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -8173,9 +8312,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="20" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
@@ -8205,9 +8344,9 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="23" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
@@ -8237,9 +8376,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="20" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -8269,9 +8408,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="23" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -8301,9 +8440,9 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="20" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
@@ -8333,9 +8472,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="23" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -8365,9 +8504,9 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="20" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -8397,9 +8536,9 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="23" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -8429,9 +8568,9 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="20" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -8461,9 +8600,9 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="23" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -8493,7 +8632,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
@@ -8504,25 +8643,25 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+    <row r="18" spans="1:26">
+      <c r="A18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -8534,56 +8673,56 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="26"/>
       <c r="B19" s="18" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="30"/>
       <c r="R19" s="16" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
@@ -8594,9 +8733,9 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="20" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -8626,9 +8765,9 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="23" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -8658,9 +8797,9 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="20" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -8690,9 +8829,9 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="23" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -8722,9 +8861,9 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="20" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -8754,9 +8893,9 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="23" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -8786,9 +8925,9 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="20" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -8818,9 +8957,9 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="23" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -8850,9 +8989,9 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="20" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -8882,9 +9021,9 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="23" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -8914,9 +9053,9 @@
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="20" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -8946,9 +9085,9 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="23" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -8978,9 +9117,9 @@
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="20" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -9010,9 +9149,9 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="23" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -9037,20 +9176,32 @@
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A18:P18"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>